--- a/FSシステムWBS(2019.08.08修正).xlsx
+++ b/FSシステムWBS(2019.08.08修正).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="21105" windowHeight="9795"/>
+    <workbookView xWindow="240" yWindow="96" windowWidth="21108" windowHeight="9792"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="82">
   <si>
     <t>予定</t>
     <rPh sb="0" eb="2">
@@ -476,6 +476,16 @@
   </si>
   <si>
     <t>15-1 結合テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE文のみ完了</t>
+    <rPh sb="6" eb="7">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -486,7 +496,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -771,7 +781,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -841,12 +851,120 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -856,114 +974,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -977,7 +990,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1266,66 +1279,66 @@
   <dimension ref="A2:T67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I27" sqref="I27:J27"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q20" sqref="Q20:T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="12.28515625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="9.109375" style="1"/>
+    <col min="11" max="11" width="12.33203125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A3" s="49" t="s">
+    <row r="2" spans="1:20" ht="15" thickBot="1"/>
+    <row r="3" spans="1:20">
+      <c r="A3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="41" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="41" t="s">
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="51" t="s">
+      <c r="M3" s="53"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="56" t="s">
+      <c r="P3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="58" t="s">
+      <c r="Q3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="59"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="50"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="38"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="26"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
       <c r="I4" s="2" t="s">
         <v>24</v>
       </c>
@@ -1344,26 +1357,26 @@
       <c r="N4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="52"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="61"/>
-    </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="O4" s="28"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="40"/>
+    </row>
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="15">
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="63"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="8"/>
@@ -1372,22 +1385,22 @@
       <c r="N5" s="8"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="12"/>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="55"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
       <c r="I6" s="16">
         <v>43637</v>
       </c>
@@ -1412,26 +1425,26 @@
       <c r="P6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="48" t="s">
+      <c r="Q6" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-    </row>
-    <row r="7" spans="1:20" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+    </row>
+    <row r="7" spans="1:20" s="11" customFormat="1" ht="15">
       <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="10"/>
@@ -1440,22 +1453,22 @@
       <c r="N7" s="10"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="36"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q7" s="55"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="12"/>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
       <c r="I8" s="16">
         <v>43652</v>
       </c>
@@ -1480,22 +1493,22 @@
       <c r="P8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="47"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q8" s="58"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="60"/>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="4"/>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
       <c r="I9" s="17">
         <v>43682</v>
       </c>
@@ -1516,22 +1529,22 @@
       <c r="P9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="4"/>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
       <c r="I10" s="17">
         <v>43691</v>
       </c>
@@ -1550,24 +1563,24 @@
       <c r="P10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-    </row>
-    <row r="11" spans="1:20" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+    </row>
+    <row r="11" spans="1:20" s="11" customFormat="1" ht="15">
       <c r="A11" s="7">
         <v>3</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="10"/>
@@ -1576,22 +1589,22 @@
       <c r="N11" s="10"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="12"/>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
       <c r="I12" s="16">
         <v>43666</v>
       </c>
@@ -1616,22 +1629,22 @@
       <c r="P12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="4"/>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
       <c r="I13" s="17">
         <v>43686</v>
       </c>
@@ -1650,22 +1663,22 @@
       <c r="P13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="4"/>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
       <c r="I14" s="17">
         <v>43692</v>
       </c>
@@ -1684,24 +1697,24 @@
       <c r="P14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-    </row>
-    <row r="15" spans="1:20" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+    </row>
+    <row r="15" spans="1:20" s="11" customFormat="1" ht="15">
       <c r="A15" s="7">
         <v>4</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="10"/>
@@ -1710,22 +1723,22 @@
       <c r="N15" s="10"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="12"/>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
       <c r="I16" s="16">
         <v>43675</v>
       </c>
@@ -1750,22 +1763,22 @@
       <c r="P16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="4"/>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
       <c r="I17" s="17">
         <v>43693</v>
       </c>
@@ -1784,24 +1797,24 @@
       <c r="P17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-    </row>
-    <row r="18" spans="1:20" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+    </row>
+    <row r="18" spans="1:20" s="11" customFormat="1" ht="15">
       <c r="A18" s="19">
         <v>5</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="10"/>
@@ -1810,22 +1823,22 @@
       <c r="N18" s="10"/>
       <c r="O18" s="19"/>
       <c r="P18" s="19"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="20"/>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="46"/>
       <c r="I19" s="17">
         <v>43690</v>
       </c>
@@ -1835,33 +1848,37 @@
       <c r="K19" s="5">
         <v>10</v>
       </c>
-      <c r="L19" s="17"/>
+      <c r="L19" s="17">
+        <v>43690</v>
+      </c>
       <c r="M19" s="17"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="20" t="s">
-        <v>44</v>
+      <c r="O19" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="P19" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="30"/>
-    </row>
-    <row r="20" spans="1:20" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="Q19" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="49"/>
+    </row>
+    <row r="20" spans="1:20" s="11" customFormat="1" ht="15">
       <c r="A20" s="7">
         <v>6</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="K20" s="10"/>
@@ -1870,22 +1887,22 @@
       <c r="N20" s="10"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="14"/>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
       <c r="I21" s="16">
         <v>43679</v>
       </c>
@@ -1910,22 +1927,22 @@
       <c r="P21" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="4"/>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="33"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="46"/>
       <c r="I22" s="17">
         <v>43685</v>
       </c>
@@ -1946,22 +1963,22 @@
       <c r="P22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="30"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q22" s="47"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="49"/>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="4"/>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="33"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="46"/>
       <c r="I23" s="17">
         <v>43693</v>
       </c>
@@ -1980,22 +1997,22 @@
       <c r="P23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="30"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q23" s="47"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="49"/>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="4"/>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
       <c r="I24" s="17">
         <v>43694</v>
       </c>
@@ -2014,28 +2031,28 @@
       <c r="P24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Q24" s="37" t="s">
+      <c r="Q24" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="4"/>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="62">
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="24">
         <v>43700</v>
       </c>
-      <c r="J25" s="62">
+      <c r="J25" s="24">
         <v>43700</v>
       </c>
       <c r="K25" s="5">
@@ -2050,26 +2067,26 @@
       <c r="P25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Q25" s="37" t="s">
+      <c r="Q25" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-    </row>
-    <row r="26" spans="1:20" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+    </row>
+    <row r="26" spans="1:20" s="11" customFormat="1" ht="15">
       <c r="A26" s="7">
         <v>7</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="27"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="63"/>
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
       <c r="K26" s="10"/>
@@ -2078,26 +2095,26 @@
       <c r="N26" s="10"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="36"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q26" s="55"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="57"/>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="4"/>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="62">
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="24">
         <v>43700</v>
       </c>
-      <c r="J27" s="62">
+      <c r="J27" s="24">
         <v>43700</v>
       </c>
       <c r="K27" s="5">
@@ -2112,26 +2129,26 @@
       <c r="P27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Q27" s="37" t="s">
+      <c r="Q27" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-    </row>
-    <row r="28" spans="1:20" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+    </row>
+    <row r="28" spans="1:20" s="11" customFormat="1" ht="15">
       <c r="A28" s="7">
         <v>8</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
       <c r="K28" s="10"/>
@@ -2140,22 +2157,22 @@
       <c r="N28" s="10"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="4"/>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
       <c r="I29" s="17">
         <v>43701</v>
       </c>
@@ -2174,26 +2191,26 @@
       <c r="P29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q29" s="37" t="s">
+      <c r="Q29" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-    </row>
-    <row r="30" spans="1:20" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+    </row>
+    <row r="30" spans="1:20" s="11" customFormat="1" ht="15">
       <c r="A30" s="7">
         <v>9</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
       <c r="I30" s="15"/>
       <c r="J30" s="15"/>
       <c r="K30" s="10"/>
@@ -2202,22 +2219,22 @@
       <c r="N30" s="10"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="4"/>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
       <c r="I31" s="17">
         <v>43716</v>
       </c>
@@ -2236,22 +2253,22 @@
       <c r="P31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="4"/>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
       <c r="I32" s="17">
         <v>43721</v>
       </c>
@@ -2270,22 +2287,22 @@
       <c r="P32" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="4"/>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
       <c r="I33" s="17">
         <v>43722</v>
       </c>
@@ -2304,22 +2321,22 @@
       <c r="P33" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="4"/>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
       <c r="I34" s="17">
         <v>43731</v>
       </c>
@@ -2338,24 +2355,24 @@
       <c r="P34" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-    </row>
-    <row r="35" spans="1:20" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+    </row>
+    <row r="35" spans="1:20" s="11" customFormat="1" ht="15">
       <c r="A35" s="7">
         <v>10</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
       <c r="K35" s="10"/>
@@ -2364,22 +2381,22 @@
       <c r="N35" s="10"/>
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="24"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="4"/>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
       <c r="I36" s="17">
         <v>43731</v>
       </c>
@@ -2398,22 +2415,22 @@
       <c r="P36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="4"/>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
       <c r="I37" s="17">
         <v>43735</v>
       </c>
@@ -2432,22 +2449,22 @@
       <c r="P37" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="4"/>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
       <c r="I38" s="17">
         <v>43736</v>
       </c>
@@ -2466,22 +2483,22 @@
       <c r="P38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="34"/>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="4"/>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
       <c r="I39" s="17">
         <v>43742</v>
       </c>
@@ -2500,24 +2517,24 @@
       <c r="P39" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
-    </row>
-    <row r="40" spans="1:20" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+    </row>
+    <row r="40" spans="1:20" s="11" customFormat="1" ht="15">
       <c r="A40" s="7">
         <v>11</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
       <c r="K40" s="10"/>
@@ -2526,22 +2543,22 @@
       <c r="N40" s="10"/>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q40" s="43"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="43"/>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" s="4"/>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
       <c r="I41" s="17">
         <v>43742</v>
       </c>
@@ -2560,22 +2577,22 @@
       <c r="P41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="37"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="34"/>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="4"/>
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
       <c r="I42" s="17">
         <v>43746</v>
       </c>
@@ -2594,22 +2611,22 @@
       <c r="P42" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="37"/>
-      <c r="S42" s="37"/>
-      <c r="T42" s="37"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="34"/>
+      <c r="T42" s="34"/>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="4"/>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
       <c r="I43" s="17">
         <v>43747</v>
       </c>
@@ -2628,22 +2645,22 @@
       <c r="P43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="37"/>
-      <c r="S43" s="37"/>
-      <c r="T43" s="37"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="34"/>
+      <c r="T43" s="34"/>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" s="4"/>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
       <c r="I44" s="17">
         <v>43755</v>
       </c>
@@ -2662,24 +2679,24 @@
       <c r="P44" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="37"/>
-    </row>
-    <row r="45" spans="1:20" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="34"/>
+    </row>
+    <row r="45" spans="1:20" s="11" customFormat="1" ht="15">
       <c r="A45" s="7">
         <v>12</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
       <c r="I45" s="15"/>
       <c r="J45" s="15"/>
       <c r="K45" s="10"/>
@@ -2688,22 +2705,22 @@
       <c r="N45" s="10"/>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="24"/>
-      <c r="S45" s="24"/>
-      <c r="T45" s="24"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q45" s="43"/>
+      <c r="R45" s="43"/>
+      <c r="S45" s="43"/>
+      <c r="T45" s="43"/>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" s="4"/>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
       <c r="I46" s="17">
         <v>43755</v>
       </c>
@@ -2722,22 +2739,22 @@
       <c r="P46" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="37"/>
-      <c r="S46" s="37"/>
-      <c r="T46" s="37"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
+      <c r="S46" s="34"/>
+      <c r="T46" s="34"/>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" s="4"/>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
       <c r="I47" s="17">
         <v>43759</v>
       </c>
@@ -2756,22 +2773,22 @@
       <c r="P47" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="37"/>
-      <c r="S47" s="37"/>
-      <c r="T47" s="37"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" s="4"/>
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
       <c r="I48" s="17">
         <v>43759</v>
       </c>
@@ -2790,22 +2807,22 @@
       <c r="P48" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="37"/>
-      <c r="S48" s="37"/>
-      <c r="T48" s="37"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="34"/>
+      <c r="T48" s="34"/>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" s="4"/>
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
       <c r="I49" s="17">
         <v>43767</v>
       </c>
@@ -2824,24 +2841,24 @@
       <c r="P49" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="37"/>
-      <c r="S49" s="37"/>
-      <c r="T49" s="37"/>
-    </row>
-    <row r="50" spans="1:20" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="34"/>
+      <c r="T49" s="34"/>
+    </row>
+    <row r="50" spans="1:20" s="11" customFormat="1" ht="15">
       <c r="A50" s="7">
         <v>13</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
       <c r="K50" s="10"/>
@@ -2850,22 +2867,22 @@
       <c r="N50" s="10"/>
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="24"/>
-      <c r="T50" s="24"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q50" s="43"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="43"/>
+      <c r="T50" s="43"/>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" s="4"/>
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
       <c r="I51" s="17">
         <v>43767</v>
       </c>
@@ -2884,22 +2901,22 @@
       <c r="P51" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q51" s="37"/>
-      <c r="R51" s="37"/>
-      <c r="S51" s="37"/>
-      <c r="T51" s="37"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="34"/>
+      <c r="T51" s="34"/>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" s="4"/>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
       <c r="I52" s="17">
         <v>43773</v>
       </c>
@@ -2918,22 +2935,22 @@
       <c r="P52" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="37"/>
-      <c r="S52" s="37"/>
-      <c r="T52" s="37"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="34"/>
+      <c r="T52" s="34"/>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" s="4"/>
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
       <c r="I53" s="17">
         <v>43774</v>
       </c>
@@ -2952,22 +2969,22 @@
       <c r="P53" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="37"/>
-      <c r="S53" s="37"/>
-      <c r="T53" s="37"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q53" s="34"/>
+      <c r="R53" s="34"/>
+      <c r="S53" s="34"/>
+      <c r="T53" s="34"/>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" s="4"/>
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
       <c r="I54" s="17">
         <v>43780</v>
       </c>
@@ -2986,24 +3003,24 @@
       <c r="P54" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="37"/>
-      <c r="S54" s="37"/>
-      <c r="T54" s="37"/>
-    </row>
-    <row r="55" spans="1:20" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34"/>
+      <c r="S54" s="34"/>
+      <c r="T54" s="34"/>
+    </row>
+    <row r="55" spans="1:20" s="11" customFormat="1" ht="15">
       <c r="A55" s="7">
         <v>14</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
       <c r="I55" s="15"/>
       <c r="J55" s="15"/>
       <c r="K55" s="10"/>
@@ -3012,22 +3029,22 @@
       <c r="N55" s="10"/>
       <c r="O55" s="7"/>
       <c r="P55" s="7"/>
-      <c r="Q55" s="24"/>
-      <c r="R55" s="24"/>
-      <c r="S55" s="24"/>
-      <c r="T55" s="24"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q55" s="43"/>
+      <c r="R55" s="43"/>
+      <c r="S55" s="43"/>
+      <c r="T55" s="43"/>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56" s="4"/>
-      <c r="B56" s="38" t="s">
+      <c r="B56" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
       <c r="I56" s="17">
         <v>43780</v>
       </c>
@@ -3046,22 +3063,22 @@
       <c r="P56" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="37"/>
-      <c r="S56" s="37"/>
-      <c r="T56" s="37"/>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q56" s="34"/>
+      <c r="R56" s="34"/>
+      <c r="S56" s="34"/>
+      <c r="T56" s="34"/>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" s="4"/>
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
       <c r="I57" s="17">
         <v>43787</v>
       </c>
@@ -3080,22 +3097,22 @@
       <c r="P57" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q57" s="37"/>
-      <c r="R57" s="37"/>
-      <c r="S57" s="37"/>
-      <c r="T57" s="37"/>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q57" s="34"/>
+      <c r="R57" s="34"/>
+      <c r="S57" s="34"/>
+      <c r="T57" s="34"/>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" s="4"/>
-      <c r="B58" s="38" t="s">
+      <c r="B58" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
       <c r="I58" s="17">
         <v>43788</v>
       </c>
@@ -3114,22 +3131,22 @@
       <c r="P58" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="37"/>
-      <c r="S58" s="37"/>
-      <c r="T58" s="37"/>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="34"/>
+      <c r="T58" s="34"/>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59" s="6"/>
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
       <c r="I59" s="17">
         <v>43794</v>
       </c>
@@ -3148,24 +3165,24 @@
       <c r="P59" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q59" s="37"/>
-      <c r="R59" s="37"/>
-      <c r="S59" s="37"/>
-      <c r="T59" s="37"/>
-    </row>
-    <row r="60" spans="1:20" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="Q59" s="34"/>
+      <c r="R59" s="34"/>
+      <c r="S59" s="34"/>
+      <c r="T59" s="34"/>
+    </row>
+    <row r="60" spans="1:20" s="11" customFormat="1" ht="15">
       <c r="A60" s="7">
         <v>15</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
       <c r="I60" s="15"/>
       <c r="J60" s="15"/>
       <c r="K60" s="10"/>
@@ -3174,22 +3191,22 @@
       <c r="N60" s="10"/>
       <c r="O60" s="7"/>
       <c r="P60" s="7"/>
-      <c r="Q60" s="24"/>
-      <c r="R60" s="24"/>
-      <c r="S60" s="24"/>
-      <c r="T60" s="24"/>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q60" s="43"/>
+      <c r="R60" s="43"/>
+      <c r="S60" s="43"/>
+      <c r="T60" s="43"/>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" s="6"/>
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
       <c r="I61" s="17">
         <v>43801</v>
       </c>
@@ -3208,20 +3225,20 @@
       <c r="P61" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="37"/>
-      <c r="S61" s="37"/>
-      <c r="T61" s="37"/>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q61" s="34"/>
+      <c r="R61" s="34"/>
+      <c r="S61" s="34"/>
+      <c r="T61" s="34"/>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" s="4"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
       <c r="K62" s="4"/>
@@ -3230,20 +3247,20 @@
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
-      <c r="Q62" s="37"/>
-      <c r="R62" s="37"/>
-      <c r="S62" s="37"/>
-      <c r="T62" s="37"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q62" s="34"/>
+      <c r="R62" s="34"/>
+      <c r="S62" s="34"/>
+      <c r="T62" s="34"/>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" s="4"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -3252,22 +3269,22 @@
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
-      <c r="Q63" s="37"/>
-      <c r="R63" s="37"/>
-      <c r="S63" s="37"/>
-      <c r="T63" s="37"/>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q63" s="34"/>
+      <c r="R63" s="34"/>
+      <c r="S63" s="34"/>
+      <c r="T63" s="34"/>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B64" s="39"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
       <c r="I64" s="21"/>
       <c r="J64" s="21"/>
       <c r="K64" s="21">
@@ -3282,95 +3299,40 @@
       </c>
       <c r="O64" s="21"/>
       <c r="P64" s="21"/>
-      <c r="Q64" s="40"/>
-      <c r="R64" s="40"/>
-      <c r="S64" s="40"/>
-      <c r="T64" s="40"/>
-    </row>
-    <row r="67" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="Q64" s="51"/>
+      <c r="R64" s="51"/>
+      <c r="S64" s="51"/>
+      <c r="T64" s="51"/>
+    </row>
+    <row r="67" spans="11:11">
       <c r="K67" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:T4"/>
-    <mergeCell ref="B3:H4"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="Q31:T31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="Q33:T33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="Q44:T44"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="Q46:T46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="Q47:T47"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="Q43:T43"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="Q52:T52"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="Q53:T53"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="Q54:T54"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="Q48:T48"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="Q55:T55"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="Q60:T60"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="Q45:T45"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="Q50:T50"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="Q57:T57"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="Q58:T58"/>
     <mergeCell ref="B63:H63"/>
     <mergeCell ref="Q63:T63"/>
     <mergeCell ref="B64:H64"/>
@@ -3395,30 +3357,85 @@
     <mergeCell ref="B56:H56"/>
     <mergeCell ref="Q56:T56"/>
     <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="Q55:T55"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="Q60:T60"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="Q45:T45"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="Q50:T50"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="Q57:T57"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="Q58:T58"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="Q52:T52"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="Q53:T53"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="Q54:T54"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="Q48:T48"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="Q44:T44"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="Q46:T46"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="Q47:T47"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="Q43:T43"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="Q33:T33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:T4"/>
+    <mergeCell ref="B3:H4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3432,7 +3449,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3445,7 +3462,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
